--- a/OddLot/data/results-mult-account/mult_share_cap.xlsx
+++ b/OddLot/data/results-mult-account/mult_share_cap.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB4A635-D3CE-4203-A2B1-1E0F9802BD43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CD7C3B-287A-40E6-A4B2-3AF31E7D0E81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="210" windowWidth="16875" windowHeight="10530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="75% Share Cap" sheetId="1" r:id="rId1"/>
-    <sheet name="50% Share Cap" sheetId="2" r:id="rId2"/>
-    <sheet name="25% Share Cap" sheetId="3" r:id="rId3"/>
-    <sheet name="10% Share Cap" sheetId="4" r:id="rId4"/>
+    <sheet name="1% Share Cap" sheetId="2" r:id="rId1"/>
+    <sheet name="2% Share Cap" sheetId="4" r:id="rId2"/>
+    <sheet name="5% Share Cap" sheetId="1" r:id="rId3"/>
+    <sheet name="10% Share Cap" sheetId="5" r:id="rId4"/>
+    <sheet name="20% Share Cap" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>Annualized Returns</t>
   </si>
@@ -348,11 +349,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD99D8B-B63A-4153-949F-081CC599EC86}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -375,13 +376,13 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>7.4025132400000002</v>
+        <v>3.6536506146000001</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>740251.32400000002</v>
+        <v>365365.06150000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -389,13 +390,13 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>5.0509691312310201</v>
+        <v>0.12159868603471399</v>
       </c>
       <c r="D3">
         <v>2001</v>
       </c>
       <c r="E3">
-        <v>4244083.5</v>
+        <v>56587.78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -403,13 +404,13 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>2.9553529871934301</v>
+        <v>0.91108384604213999</v>
       </c>
       <c r="D4">
         <v>2002</v>
       </c>
       <c r="E4">
-        <v>15026004.109999999</v>
+        <v>475542.80229999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -417,13 +418,13 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.99227242255030301</v>
+        <v>0.27168940301070199</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5">
-        <v>20465458.8937499</v>
+        <v>272872.78519999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -431,13 +432,13 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.46784779457225301</v>
+        <v>0.40747988730523099</v>
       </c>
       <c r="D6">
         <v>2004</v>
       </c>
       <c r="E6">
-        <v>19818264.5499999</v>
+        <v>530191.81519999995</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -445,13 +446,13 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.40037177677328301</v>
+        <v>0.33666766313148999</v>
       </c>
       <c r="D7">
         <v>2005</v>
       </c>
       <c r="E7">
-        <v>24894620.769999899</v>
+        <v>616553.04040000006</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -459,13 +460,13 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.25248047445976601</v>
+        <v>0.164230901704631</v>
       </c>
       <c r="D8">
         <v>2006</v>
       </c>
       <c r="E8">
-        <v>21984328.585000001</v>
+        <v>402019.72139999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -473,13 +474,13 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.46815811238944199</v>
+        <v>0.30485706847298499</v>
       </c>
       <c r="D9">
         <v>2007</v>
       </c>
       <c r="E9">
-        <v>51056251.530000001</v>
+        <v>868816.12439999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -487,13 +488,13 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>7.7646393579310705E-2</v>
+        <v>4.4575341800695403E-2</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10">
-        <v>12432271.653750001</v>
+        <v>165763.622</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -501,13 +502,13 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>5.2222578744182499E-2</v>
+        <v>3.1441379893467701E-2</v>
       </c>
       <c r="D11">
         <v>2009</v>
       </c>
       <c r="E11">
-        <v>9385811.7824999895</v>
+        <v>125144.1571</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -515,13 +516,13 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.458765707586064</v>
+        <v>0.36691672754229698</v>
       </c>
       <c r="D12">
         <v>2010</v>
       </c>
       <c r="E12">
-        <v>86767113.179999903</v>
+        <v>1506424.906</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -529,13 +530,13 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.143409993221433</v>
+        <v>9.6217490893770005E-2</v>
       </c>
       <c r="D13">
         <v>2011</v>
       </c>
       <c r="E13">
-        <v>39566639.113749899</v>
+        <v>539977.99459999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -543,13 +544,13 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.13328430311224501</v>
+        <v>9.11277633110118E-2</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14">
-        <v>42046585.702499896</v>
+        <v>560621.14269999997</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -557,13 +558,13 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>0.1637835237736</v>
+        <v>0.124302005808595</v>
       </c>
       <c r="D15">
         <v>2013</v>
       </c>
       <c r="E15">
-        <v>59414435.950000003</v>
+        <v>843097.69960000005</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -571,13 +572,13 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.148406851969547</v>
+        <v>0.11394031819153699</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16">
-        <v>62653873.387499899</v>
+        <v>868880.76089999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -585,13 +586,13 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>8.8159815865167704E-2</v>
+        <v>7.9248038299158496E-2</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17">
-        <v>42799374.5349999</v>
+        <v>673864.16680000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -599,13 +600,13 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>7.1360217524039496E-2</v>
+        <v>5.4770817510068397E-2</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>37697764.507499903</v>
+        <v>502636.86009999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -613,13 +614,13 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>8.3459036090282199E-2</v>
+        <v>6.5064460459286794E-2</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>47235477.75</v>
+        <v>629806.37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -627,13 +628,13 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>3.0181611367971799E-2</v>
+        <v>2.3935885223216699E-2</v>
       </c>
       <c r="D20">
         <v>2018</v>
       </c>
       <c r="E20">
-        <v>18507589.844999999</v>
+        <v>246767.8646</v>
       </c>
     </row>
   </sheetData>
@@ -646,11 +647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD99D8B-B63A-4153-949F-081CC599EC86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC66C7B6-00AA-42FD-BFE2-5EDF95DEC292}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -673,13 +674,13 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>7.3445694899999996</v>
+        <v>5.1734639299999996</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>734456.94900000002</v>
+        <v>517346.39299999899</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -687,13 +688,13 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>3.3906949943801101</v>
+        <v>0.18332586256805</v>
       </c>
       <c r="D3">
         <v>2001</v>
       </c>
       <c r="E3">
-        <v>2829389</v>
+        <v>113175.55999999899</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -701,13 +702,13 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>2.8172666246563298</v>
+        <v>1.1217879444069201</v>
       </c>
       <c r="D4">
         <v>2002</v>
       </c>
       <c r="E4">
-        <v>10322030.91</v>
+        <v>819490.72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -715,13 +716,13 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.95217785711727898</v>
+        <v>0.34900183383199002</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5">
-        <v>13643639.26</v>
+        <v>545745.57049999898</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -729,13 +730,13 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.46429345274060402</v>
+        <v>0.41483192760104198</v>
       </c>
       <c r="D6">
         <v>2004</v>
       </c>
       <c r="E6">
-        <v>13398501.66</v>
+        <v>894924.48539999896</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -743,13 +744,13 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.39815766601067498</v>
+        <v>0.34720736354474901</v>
       </c>
       <c r="D7">
         <v>2005</v>
       </c>
       <c r="E7">
-        <v>16824682.5</v>
+        <v>1059761.1507999899</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -757,13 +758,13 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.249548058193864</v>
+        <v>0.179406134911969</v>
       </c>
       <c r="D8">
         <v>2006</v>
       </c>
       <c r="E8">
-        <v>14743552.43</v>
+        <v>737718.72280000104</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -771,13 +772,13 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.46560684940868602</v>
+        <v>0.35829518329651699</v>
       </c>
       <c r="D9">
         <v>2007</v>
       </c>
       <c r="E9">
-        <v>34373223.990000002</v>
+        <v>1737632.2487999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -785,13 +786,13 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>7.6602128717298795E-2</v>
+        <v>5.0327825293118002E-2</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10">
-        <v>8288181.1030000001</v>
+        <v>331527.24409999902</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -799,13 +800,13 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>5.1595963112469799E-2</v>
+        <v>3.5200455552279103E-2</v>
       </c>
       <c r="D11">
         <v>2009</v>
       </c>
       <c r="E11">
-        <v>6257207.8550000004</v>
+        <v>250288.314199999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -813,13 +814,13 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.45641922309901301</v>
+        <v>0.38387542767230598</v>
       </c>
       <c r="D12">
         <v>2010</v>
       </c>
       <c r="E12">
-        <v>58213037.579999998</v>
+        <v>2825768.3527999902</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -827,13 +828,13 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.14290179598792399</v>
+        <v>0.10601390101647599</v>
       </c>
       <c r="D13">
         <v>2011</v>
       </c>
       <c r="E13">
-        <v>26544859.050000001</v>
+        <v>1079955.9890999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -841,13 +842,13 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.13203462149716</v>
+        <v>9.9516625430907099E-2</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14">
-        <v>28031057.129999999</v>
+        <v>1121242.2853999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -855,13 +856,13 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>0.16266003239409399</v>
+        <v>0.13242696851084201</v>
       </c>
       <c r="D15">
         <v>2013</v>
       </c>
       <c r="E15">
-        <v>39661699.460000001</v>
+        <v>1659061.79919999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -869,13 +870,13 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.147570396814627</v>
+        <v>0.122488085615875</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16">
-        <v>41835258.159999996</v>
+        <v>1737761.5218</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -883,13 +884,13 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>8.7918207734571402E-2</v>
+        <v>8.1144959235916497E-2</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17">
-        <v>28640106.859999999</v>
+        <v>1293624.1586</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -897,13 +898,13 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>7.0914049274653695E-2</v>
+        <v>5.8324876860447197E-2</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>25131843</v>
+        <v>1005273.7202</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -911,13 +912,13 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>8.2971775547536E-2</v>
+        <v>6.9053793378888104E-2</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>31490318.5</v>
+        <v>1259612.74</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -925,13 +926,13 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>3.0018901772790901E-2</v>
+        <v>2.53086824170492E-2</v>
       </c>
       <c r="D20">
         <v>2018</v>
       </c>
       <c r="E20">
-        <v>12338393.23</v>
+        <v>493535.72919999802</v>
       </c>
     </row>
   </sheetData>
@@ -944,16 +945,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5041C6-AD21-4F43-B974-420CE69DAD94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E20"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.9296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -972,13 +972,13 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>7.2866019900000003</v>
+        <v>6.6510223000000002</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>728660.19900000002</v>
+        <v>665102.23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -986,13 +986,13 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>1.7072070092267</v>
+        <v>0.369805352678164</v>
       </c>
       <c r="D3">
         <v>2001</v>
       </c>
       <c r="E3">
-        <v>1414694.5</v>
+        <v>282938.90000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1000,13 +1000,13 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>2.5043088449206401</v>
+        <v>1.6424973321419101</v>
       </c>
       <c r="D4">
         <v>2002</v>
       </c>
       <c r="E4">
-        <v>5618053.0149999997</v>
+        <v>1721404.76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1014,13 +1014,13 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.84923415955105697</v>
+        <v>0.48662181944384397</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5">
-        <v>6821819.6312499903</v>
+        <v>1364363.92625</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1028,13 +1028,13 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.45448806943366499</v>
+        <v>0.42592031743351499</v>
       </c>
       <c r="D6">
         <v>2004</v>
       </c>
       <c r="E6">
-        <v>6978735.5449999897</v>
+        <v>1826222.72599999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1042,13 +1042,13 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.39199348265066802</v>
+        <v>0.36289279553998599</v>
       </c>
       <c r="D7">
         <v>2005</v>
       </c>
       <c r="E7">
-        <v>8754740.2200000007</v>
+        <v>2218702.0720000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1056,13 +1056,13 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.241335036931145</v>
+        <v>0.20155864318444799</v>
       </c>
       <c r="D8">
         <v>2006</v>
       </c>
       <c r="E8">
-        <v>7502776.2750000004</v>
+        <v>1679514.52699999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1070,13 +1070,13 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.45839718675316499</v>
+        <v>0.42208560923138499</v>
       </c>
       <c r="D9">
         <v>2007</v>
       </c>
       <c r="E9">
-        <v>17690193.219999999</v>
+        <v>4225984.07</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1084,13 +1084,13 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>7.3631353827907003E-2</v>
+        <v>5.8211150152403503E-2</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10">
-        <v>4144090.55125</v>
+        <v>828818.11024999805</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1098,13 +1098,13 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>4.98032205813854E-2</v>
+        <v>4.0250474631232602E-2</v>
       </c>
       <c r="D11">
         <v>2009</v>
       </c>
       <c r="E11">
-        <v>3128603.9275000002</v>
+        <v>625720.78549999895</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1112,13 +1112,13 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.448597616209852</v>
+        <v>0.40646419314858201</v>
       </c>
       <c r="D12">
         <v>2010</v>
       </c>
       <c r="E12">
-        <v>29586880.489999902</v>
+        <v>6573601.3019999899</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1126,13 +1126,13 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.14129477040521499</v>
+        <v>0.11869606431797899</v>
       </c>
       <c r="D13">
         <v>2011</v>
       </c>
       <c r="E13">
-        <v>13499449.863749901</v>
+        <v>2699889.9727500002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1140,13 +1140,13 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.12853507978777301</v>
+        <v>0.110158400032156</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14">
-        <v>14015528.5674999</v>
+        <v>2803105.7135000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -1154,13 +1154,13 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>0.159499182461978</v>
+        <v>0.14253760813625599</v>
       </c>
       <c r="D15">
         <v>2013</v>
       </c>
       <c r="E15">
-        <v>19906458.530000001</v>
+        <v>4076467.6179999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -1168,13 +1168,13 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.14520840328193699</v>
+        <v>0.13231039580072501</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16">
-        <v>21013468.282499999</v>
+        <v>4323336.1364999898</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -1182,13 +1182,13 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>8.7234029881340505E-2</v>
+        <v>8.3447030845070394E-2</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17">
-        <v>14475685.2199999</v>
+        <v>3091046.3839999898</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -1196,13 +1196,13 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>6.9649517207785894E-2</v>
+        <v>6.2621291572096296E-2</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>12565921.502499901</v>
+        <v>2513184.3004999901</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -1210,13 +1210,13 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>8.1588570877633396E-2</v>
+        <v>7.3840770941477701E-2</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>15745159.25</v>
+        <v>3149031.85</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -1224,13 +1224,13 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>2.9556213200759299E-2</v>
+        <v>2.6942499746122998E-2</v>
       </c>
       <c r="D20">
         <v>2018</v>
       </c>
       <c r="E20">
-        <v>6169196.61500003</v>
+        <v>1233839.3229999901</v>
       </c>
     </row>
   </sheetData>
@@ -1243,11 +1243,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC66C7B6-00AA-42FD-BFE2-5EDF95DEC292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F37130-DF91-4819-B1DA-4AD4CF657F29}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1284,7 +1284,7 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>0.68575989371305601</v>
+        <v>0.68575989400000004</v>
       </c>
       <c r="D3">
         <v>2001</v>
@@ -1298,7 +1298,7 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>2.0097387737544898</v>
+        <v>2.0097387740000001</v>
       </c>
       <c r="D4">
         <v>2002</v>
@@ -1312,13 +1312,13 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.64124920611293901</v>
+        <v>0.64124920600000002</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5">
-        <v>2728727.8525</v>
+        <v>2728727.8530000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1326,7 +1326,7 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.43604444502915102</v>
+        <v>0.436044445</v>
       </c>
       <c r="D6">
         <v>2004</v>
@@ -1340,7 +1340,7 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.37700491756798599</v>
+        <v>0.37700491800000002</v>
       </c>
       <c r="D7">
         <v>2005</v>
@@ -1354,13 +1354,13 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.221057729449848</v>
+        <v>0.22105772900000001</v>
       </c>
       <c r="D8">
         <v>2006</v>
       </c>
       <c r="E8">
-        <v>3157492.1339999898</v>
+        <v>3157492.1340000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1368,13 +1368,13 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.44018186827629902</v>
+        <v>0.44018186799999998</v>
       </c>
       <c r="D9">
         <v>2007</v>
       </c>
       <c r="E9">
-        <v>7677236.48999999</v>
+        <v>7677236.4900000002</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1382,13 +1382,13 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>6.5993189619437495E-2</v>
+        <v>6.5993189999999993E-2</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10">
-        <v>1657636.22049999</v>
+        <v>1657636.22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1396,13 +1396,13 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>4.5124026984993501E-2</v>
+        <v>4.5124026999999997E-2</v>
       </c>
       <c r="D11">
         <v>2009</v>
       </c>
       <c r="E11">
-        <v>1251441.57099999</v>
+        <v>1251441.571</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1410,13 +1410,13 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.42805593084619298</v>
+        <v>0.428055931</v>
       </c>
       <c r="D12">
         <v>2010</v>
       </c>
       <c r="E12">
-        <v>12408192.863999899</v>
+        <v>12408192.859999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1424,13 +1424,13 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.13044361557209999</v>
+        <v>0.13044361600000001</v>
       </c>
       <c r="D13">
         <v>2011</v>
       </c>
       <c r="E13">
-        <v>5399779.9455000004</v>
+        <v>5399779.9460000005</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1438,7 +1438,7 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.119802900612811</v>
+        <v>0.119802901</v>
       </c>
       <c r="D14">
         <v>2012</v>
@@ -1452,7 +1452,7 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>0.151516489045396</v>
+        <v>0.151516489</v>
       </c>
       <c r="D15">
         <v>2013</v>
@@ -1466,13 +1466,13 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.13918548872586201</v>
+        <v>0.139185489</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16">
-        <v>8510810.4329999797</v>
+        <v>8510810.4330000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -1480,13 +1480,13 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>8.5476426046232401E-2</v>
+        <v>8.5476425999999994E-2</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17">
-        <v>5961468.4679999901</v>
+        <v>5961468.4680000003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -1494,13 +1494,13 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>6.6393725962326705E-2</v>
+        <v>6.6393726E-2</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>5026368.6009999895</v>
+        <v>5026368.6009999998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -1508,7 +1508,7 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>7.8012137120570799E-2</v>
+        <v>7.8012136999999995E-2</v>
       </c>
       <c r="D19">
         <v>2017</v>
@@ -1522,13 +1522,311 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>2.8354375012509401E-2</v>
+        <v>2.8354375000000001E-2</v>
       </c>
       <c r="D20">
         <v>2018</v>
       </c>
       <c r="E20">
-        <v>2467678.6459999899</v>
+        <v>2467678.6460000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5041C6-AD21-4F43-B974-420CE69DAD94}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="15.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>7.2750132399999998</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2">
+        <v>727501.32400000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>1.3676782950984101</v>
+      </c>
+      <c r="D3">
+        <v>2001</v>
+      </c>
+      <c r="E3">
+        <v>1131755.6000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>2.3872617024881801</v>
+      </c>
+      <c r="D4">
+        <v>2002</v>
+      </c>
+      <c r="E4">
+        <v>4677259.0199999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>0.80568121694475303</v>
+      </c>
+      <c r="D5">
+        <v>2003</v>
+      </c>
+      <c r="E5">
+        <v>5457455.7050000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>0.450016198107062</v>
+      </c>
+      <c r="D6">
+        <v>2004</v>
+      </c>
+      <c r="E6">
+        <v>5694785.659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>0.38915435734241399</v>
+      </c>
+      <c r="D7">
+        <v>2005</v>
+      </c>
+      <c r="E7">
+        <v>7140752.6179999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>0.23752770290651001</v>
+      </c>
+      <c r="D8">
+        <v>2006</v>
+      </c>
+      <c r="E8">
+        <v>6054619.6279999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>0.45502263469559801</v>
+      </c>
+      <c r="D9">
+        <v>2007</v>
+      </c>
+      <c r="E9">
+        <v>14353589.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>7.22307207915171E-2</v>
+      </c>
+      <c r="D10">
+        <v>2008</v>
+      </c>
+      <c r="E10">
+        <v>3315272.4410000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>4.8952762496176701E-2</v>
+      </c>
+      <c r="D11">
+        <v>2009</v>
+      </c>
+      <c r="E11">
+        <v>2502883.142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>0.44487773517482998</v>
+      </c>
+      <c r="D12">
+        <v>2010</v>
+      </c>
+      <c r="E12">
+        <v>23861649.239999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>0.13935263083424701</v>
+      </c>
+      <c r="D13">
+        <v>2011</v>
+      </c>
+      <c r="E13">
+        <v>10799559.890000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>0.126984415228935</v>
+      </c>
+      <c r="D14">
+        <v>2012</v>
+      </c>
+      <c r="E14">
+        <v>11212422.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>0.158091627668206</v>
+      </c>
+      <c r="D15">
+        <v>2013</v>
+      </c>
+      <c r="E15">
+        <v>15953034.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>0.144152441311238</v>
+      </c>
+      <c r="D16">
+        <v>2014</v>
+      </c>
+      <c r="E16">
+        <v>16846099.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17">
+        <v>8.6927229006150006E-2</v>
+      </c>
+      <c r="D17">
+        <v>2015</v>
+      </c>
+      <c r="E17">
+        <v>11637910.560000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>6.9081964842750199E-2</v>
+      </c>
+      <c r="D18">
+        <v>2016</v>
+      </c>
+      <c r="E18">
+        <v>10052737.199999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19">
+        <v>8.0966691507184704E-2</v>
+      </c>
+      <c r="D19">
+        <v>2017</v>
+      </c>
+      <c r="E19">
+        <v>12596127.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20">
+        <v>2.9347805720457799E-2</v>
+      </c>
+      <c r="D20">
+        <v>2018</v>
+      </c>
+      <c r="E20">
+        <v>4935357.2920000004</v>
       </c>
     </row>
   </sheetData>
